--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2559.274293889484</v>
+        <v>2688.604218621144</v>
       </c>
       <c r="AB2" t="n">
-        <v>3501.711996113048</v>
+        <v>3678.666904764511</v>
       </c>
       <c r="AC2" t="n">
-        <v>3167.51351788754</v>
+        <v>3327.580098415076</v>
       </c>
       <c r="AD2" t="n">
-        <v>2559274.293889484</v>
+        <v>2688604.218621144</v>
       </c>
       <c r="AE2" t="n">
-        <v>3501711.996113048</v>
+        <v>3678666.904764512</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044094847656103e-06</v>
+        <v>1.505234386934909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.10833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3167513.51788754</v>
+        <v>3327580.098415075</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.0802603986431</v>
+        <v>932.976610561919</v>
       </c>
       <c r="AB3" t="n">
-        <v>1182.272732808101</v>
+        <v>1276.539758593947</v>
       </c>
       <c r="AC3" t="n">
-        <v>1069.438282519097</v>
+        <v>1154.708595668544</v>
       </c>
       <c r="AD3" t="n">
-        <v>864080.2603986431</v>
+        <v>932976.6105619189</v>
       </c>
       <c r="AE3" t="n">
-        <v>1182272.732808101</v>
+        <v>1276539.758593947</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.962145549947546e-06</v>
+        <v>2.828755414876978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.48958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1069438.282519097</v>
+        <v>1154708.595668544</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.4230422167063</v>
+        <v>716.6860245844987</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.1469657016734</v>
+        <v>980.6014367924331</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.4290798522885</v>
+        <v>887.0142119477231</v>
       </c>
       <c r="AD4" t="n">
-        <v>656423.0422167063</v>
+        <v>716686.0245844987</v>
       </c>
       <c r="AE4" t="n">
-        <v>898146.9657016734</v>
+        <v>980601.4367924331</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.295929120079887e-06</v>
+        <v>3.309959309987649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH4" t="n">
-        <v>812429.0798522885</v>
+        <v>887014.2119477231</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>556.0234079946412</v>
+        <v>607.7383634215215</v>
       </c>
       <c r="AB5" t="n">
-        <v>760.7757568397875</v>
+        <v>831.5344403576584</v>
       </c>
       <c r="AC5" t="n">
-        <v>688.1683863624784</v>
+        <v>752.1739604358395</v>
       </c>
       <c r="AD5" t="n">
-        <v>556023.4079946411</v>
+        <v>607738.3634215215</v>
       </c>
       <c r="AE5" t="n">
-        <v>760775.7568397875</v>
+        <v>831534.4403576583</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.487913026676985e-06</v>
+        <v>3.586735676231374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>688168.3863624784</v>
+        <v>752173.9604358395</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.6929277407583</v>
+        <v>559.4931345136592</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.6478615661186</v>
+        <v>765.5231897366389</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.3516446026445</v>
+        <v>692.4627309267181</v>
       </c>
       <c r="AD6" t="n">
-        <v>507692.9277407583</v>
+        <v>559493.1345136593</v>
       </c>
       <c r="AE6" t="n">
-        <v>694647.8615661187</v>
+        <v>765523.1897366389</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563481160124779e-06</v>
+        <v>3.69567956507199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.85625</v>
       </c>
       <c r="AH6" t="n">
-        <v>628351.6446026445</v>
+        <v>692462.7309267181</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.944389102889</v>
+        <v>559.74459587579</v>
       </c>
       <c r="AB7" t="n">
-        <v>694.9919220954782</v>
+        <v>765.8672502659986</v>
       </c>
       <c r="AC7" t="n">
-        <v>628.6628684779741</v>
+        <v>692.7739548020475</v>
       </c>
       <c r="AD7" t="n">
-        <v>507944.389102889</v>
+        <v>559744.59587579</v>
       </c>
       <c r="AE7" t="n">
-        <v>694991.9220954783</v>
+        <v>765867.2502659985</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>3.702620005866855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>628662.8684779741</v>
+        <v>692773.9548020475</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1536.091949274715</v>
+        <v>1637.01569108018</v>
       </c>
       <c r="AB2" t="n">
-        <v>2101.748772591671</v>
+        <v>2239.837088571159</v>
       </c>
       <c r="AC2" t="n">
-        <v>1901.16081955845</v>
+        <v>2026.070180469025</v>
       </c>
       <c r="AD2" t="n">
-        <v>1536091.949274715</v>
+        <v>1637015.69108018</v>
       </c>
       <c r="AE2" t="n">
-        <v>2101748.772591671</v>
+        <v>2239837.088571159</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381026818177912e-06</v>
+        <v>2.021771309029687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1901160.81955845</v>
+        <v>2026070.180469024</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.1358585294678</v>
+        <v>729.9725720684686</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.2776900644393</v>
+        <v>998.7806772211064</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.638556135521</v>
+        <v>903.458451184608</v>
       </c>
       <c r="AD3" t="n">
-        <v>671135.8585294678</v>
+        <v>729972.5720684686</v>
       </c>
       <c r="AE3" t="n">
-        <v>918277.6900644393</v>
+        <v>998780.6772211065</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229624107940168e-06</v>
+        <v>3.264085817900185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.10208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>830638.5561355209</v>
+        <v>903458.4511846079</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.0684691041398</v>
+        <v>564.4877590881374</v>
       </c>
       <c r="AB4" t="n">
-        <v>703.3711585285312</v>
+        <v>772.3570554267245</v>
       </c>
       <c r="AC4" t="n">
-        <v>636.2424023461886</v>
+        <v>698.6443820667329</v>
       </c>
       <c r="AD4" t="n">
-        <v>514068.4691041398</v>
+        <v>564487.7590881374</v>
       </c>
       <c r="AE4" t="n">
-        <v>703371.1585285312</v>
+        <v>772357.0554267245</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543075392100972e-06</v>
+        <v>3.722966706202519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>636242.4023461886</v>
+        <v>698644.3820667329</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.3593929421876</v>
+        <v>532.7786829261853</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.9854016180378</v>
+        <v>728.9712985162314</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.9973211829405</v>
+        <v>659.3993009034847</v>
       </c>
       <c r="AD5" t="n">
-        <v>482359.3929421876</v>
+        <v>532778.6829261853</v>
       </c>
       <c r="AE5" t="n">
-        <v>659985.4016180378</v>
+        <v>728971.2985162314</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.616269360718204e-06</v>
+        <v>3.830119922777691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>596997.3211829405</v>
+        <v>659399.3009034847</v>
       </c>
     </row>
   </sheetData>
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.2490354515451</v>
+        <v>531.5348052452034</v>
       </c>
       <c r="AB2" t="n">
-        <v>652.9931850462799</v>
+        <v>727.2693701971017</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.6724319471535</v>
+        <v>657.8598022344614</v>
       </c>
       <c r="AD2" t="n">
-        <v>477249.0354515451</v>
+        <v>531534.8052452034</v>
       </c>
       <c r="AE2" t="n">
-        <v>652993.1850462799</v>
+        <v>727269.3701971017</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.491640489263013e-06</v>
+        <v>3.854875387338792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>590672.4319471535</v>
+        <v>657859.8022344614</v>
       </c>
     </row>
     <row r="3">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.1008499414667</v>
+        <v>481.3012788805535</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.3782252495881</v>
+        <v>658.5376432782122</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.605987611757</v>
+        <v>595.6877348671261</v>
       </c>
       <c r="AD3" t="n">
-        <v>427100.8499414667</v>
+        <v>481301.2788805535</v>
       </c>
       <c r="AE3" t="n">
-        <v>584378.2252495881</v>
+        <v>658537.6432782122</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.634611750102719e-06</v>
+        <v>4.076069575217315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>528605.987611757</v>
+        <v>595687.7348671261</v>
       </c>
     </row>
   </sheetData>
@@ -4297,28 +4297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.6751597949525</v>
+        <v>811.7830085460822</v>
       </c>
       <c r="AB2" t="n">
-        <v>1012.056185796442</v>
+        <v>1110.717325631509</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.466963853807</v>
+        <v>1004.712022974794</v>
       </c>
       <c r="AD2" t="n">
-        <v>739675.1597949525</v>
+        <v>811783.0085460822</v>
       </c>
       <c r="AE2" t="n">
-        <v>1012056.185796442</v>
+        <v>1110717.325631509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027153438181795e-06</v>
+        <v>3.063624764225399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.55625</v>
       </c>
       <c r="AH2" t="n">
-        <v>915466.963853807</v>
+        <v>1004712.022974794</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.3162859825496</v>
+        <v>491.3812037101902</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.6189472804562</v>
+        <v>672.3294411250196</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.7739109084515</v>
+        <v>608.1632628843441</v>
       </c>
       <c r="AD3" t="n">
-        <v>435316.2859825497</v>
+        <v>491381.2037101901</v>
       </c>
       <c r="AE3" t="n">
-        <v>595618.9472804562</v>
+        <v>672329.4411250196</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66318632175024e-06</v>
+        <v>4.024857424891526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>538773.9109084515</v>
+        <v>608163.2628843441</v>
       </c>
     </row>
     <row r="4">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.6103854183094</v>
+        <v>493.6753031459498</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.7578353369868</v>
+        <v>675.4683291815501</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.6132278943239</v>
+        <v>611.0025798702164</v>
       </c>
       <c r="AD4" t="n">
-        <v>437610.3854183094</v>
+        <v>493675.3031459498</v>
       </c>
       <c r="AE4" t="n">
-        <v>598757.8353369868</v>
+        <v>675468.3291815501</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662703014087953e-06</v>
+        <v>4.024127004936612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>541613.2278943239</v>
+        <v>611002.5798702164</v>
       </c>
     </row>
   </sheetData>
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.0355720692682</v>
+        <v>478.8620021832357</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.9206650681033</v>
+        <v>655.2001172876491</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.2875349282945</v>
+        <v>592.6687376728553</v>
       </c>
       <c r="AD2" t="n">
-        <v>426035.5720692682</v>
+        <v>478862.0021832357</v>
       </c>
       <c r="AE2" t="n">
-        <v>582920.6650681032</v>
+        <v>655200.1172876491</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.550875001259199e-06</v>
+        <v>4.031627304355155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>527287.5349282945</v>
+        <v>592668.7376728553</v>
       </c>
     </row>
     <row r="3">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.4225224138405</v>
+        <v>482.248952527808</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.5548399512508</v>
+        <v>659.8342921707965</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.4794306646996</v>
+        <v>596.8606334092603</v>
       </c>
       <c r="AD3" t="n">
-        <v>429422.5224138405</v>
+        <v>482248.952527808</v>
       </c>
       <c r="AE3" t="n">
-        <v>587554.8399512507</v>
+        <v>659834.2921707965</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550525206949805e-06</v>
+        <v>4.031074458650066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.28541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>531479.4306646996</v>
+        <v>596860.6334092603</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.480319299475</v>
+        <v>1845.085259782738</v>
       </c>
       <c r="AB2" t="n">
-        <v>2385.506689788705</v>
+        <v>2524.527051851521</v>
       </c>
       <c r="AC2" t="n">
-        <v>2157.837279394937</v>
+        <v>2283.589733218782</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743480.319299475</v>
+        <v>1845085.259782738</v>
       </c>
       <c r="AE2" t="n">
-        <v>2385506.689788705</v>
+        <v>2524527.051851521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290850090114261e-06</v>
+        <v>1.88191264741386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2157837.279394937</v>
+        <v>2283589.733218782</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.3552436178431</v>
+        <v>775.5892708389048</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.1488476808286</v>
+        <v>1061.195456945534</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.6048173057171</v>
+        <v>959.9164519318299</v>
       </c>
       <c r="AD3" t="n">
-        <v>716355.2436178431</v>
+        <v>775589.2708389048</v>
       </c>
       <c r="AE3" t="n">
-        <v>980148.8476808285</v>
+        <v>1061195.456945534</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.15635228817836e-06</v>
+        <v>3.143716434991661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>886604.8173057172</v>
+        <v>959916.4519318299</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.3087671751128</v>
+        <v>607.5427048876235</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.2202449245764</v>
+        <v>831.2667317197337</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.6202776897009</v>
+        <v>751.9318015345871</v>
       </c>
       <c r="AD4" t="n">
-        <v>548308.7671751129</v>
+        <v>607542.7048876234</v>
       </c>
       <c r="AE4" t="n">
-        <v>750220.2449245764</v>
+        <v>831266.7317197337</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474465848793935e-06</v>
+        <v>3.607489833328966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>678620.2776897008</v>
+        <v>751931.8015345871</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.5814987086708</v>
+        <v>540.7300955666097</v>
       </c>
       <c r="AB5" t="n">
-        <v>658.9210524094685</v>
+        <v>739.8507720824282</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.0345519690135</v>
+        <v>669.2404527819608</v>
       </c>
       <c r="AD5" t="n">
-        <v>481581.4987086708</v>
+        <v>540730.0955666098</v>
       </c>
       <c r="AE5" t="n">
-        <v>658921.0524094686</v>
+        <v>739850.7720824282</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.603835021305676e-06</v>
+        <v>3.79609537614127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.96666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>596034.5519690135</v>
+        <v>669240.4527819608</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.4850451947953</v>
+        <v>541.6336420527343</v>
       </c>
       <c r="AB6" t="n">
-        <v>660.1573245734419</v>
+        <v>741.0870442464015</v>
       </c>
       <c r="AC6" t="n">
-        <v>597.1528360527761</v>
+        <v>670.3587368657234</v>
       </c>
       <c r="AD6" t="n">
-        <v>482485.0451947953</v>
+        <v>541633.6420527344</v>
       </c>
       <c r="AE6" t="n">
-        <v>660157.3245734419</v>
+        <v>741087.0442464015</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607574014730871e-06</v>
+        <v>3.80154640339018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>597152.8360527761</v>
+        <v>670358.7368657234</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.6045528386017</v>
+        <v>486.6521762144594</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.6451225934563</v>
+        <v>665.8589770753919</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.8930266828073</v>
+        <v>602.3103308422595</v>
       </c>
       <c r="AD2" t="n">
-        <v>434604.5528386017</v>
+        <v>486652.1762144594</v>
       </c>
       <c r="AE2" t="n">
-        <v>594645.1225934563</v>
+        <v>665858.9770753919</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46464501762772e-06</v>
+        <v>3.948940257631273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>537893.0266828074</v>
+        <v>602310.3308422596</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1077.512806398621</v>
+        <v>1159.674342417758</v>
       </c>
       <c r="AB2" t="n">
-        <v>1474.300558224654</v>
+        <v>1586.717596517187</v>
       </c>
       <c r="AC2" t="n">
-        <v>1333.595382141522</v>
+        <v>1435.28349607772</v>
       </c>
       <c r="AD2" t="n">
-        <v>1077512.806398622</v>
+        <v>1159674.342417758</v>
       </c>
       <c r="AE2" t="n">
-        <v>1474300.558224654</v>
+        <v>1586717.596517187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673379351594544e-06</v>
+        <v>2.484705946432086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1333595.382141522</v>
+        <v>1435283.49607772</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.5527083958244</v>
+        <v>585.9520748362129</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.1350866620444</v>
+        <v>801.7254791720204</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.0702643560835</v>
+        <v>725.2099246686195</v>
       </c>
       <c r="AD3" t="n">
-        <v>536552.7083958244</v>
+        <v>585952.0748362129</v>
       </c>
       <c r="AE3" t="n">
-        <v>734135.0866620444</v>
+        <v>801725.4791720205</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466687421826412e-06</v>
+        <v>3.662644037743784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13125</v>
       </c>
       <c r="AH3" t="n">
-        <v>664070.2643560835</v>
+        <v>725209.9246686194</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.1077862524723</v>
+        <v>507.4218118382892</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.8032834397924</v>
+        <v>694.276908827571</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.9820577922313</v>
+        <v>628.0160950728282</v>
       </c>
       <c r="AD4" t="n">
-        <v>458107.7862524723</v>
+        <v>507421.8118382891</v>
       </c>
       <c r="AE4" t="n">
-        <v>626803.2834397923</v>
+        <v>694276.908827571</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648454794249197e-06</v>
+        <v>3.932540084145857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.23125</v>
       </c>
       <c r="AH4" t="n">
-        <v>566982.0577922313</v>
+        <v>628016.0950728282</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>460.2958295600736</v>
+        <v>509.6098551458904</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.7970608229105</v>
+        <v>697.270686210689</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.6901132636976</v>
+        <v>630.7241505442945</v>
       </c>
       <c r="AD5" t="n">
-        <v>460295.8295600736</v>
+        <v>509609.8551458904</v>
       </c>
       <c r="AE5" t="n">
-        <v>629797.0608229104</v>
+        <v>697270.6862106889</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.648299304623515e-06</v>
+        <v>3.932309206432938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23125</v>
       </c>
       <c r="AH5" t="n">
-        <v>569690.1132636976</v>
+        <v>630724.1505442945</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.293298646697</v>
+        <v>1457.23686598481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.054523697752</v>
+        <v>1993.855768793673</v>
       </c>
       <c r="AC2" t="n">
-        <v>1689.770021787028</v>
+        <v>1803.564972614151</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365293.298646697</v>
+        <v>1457236.865984811</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868054.523697752</v>
+        <v>1993855.768793673</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473365777508894e-06</v>
+        <v>2.166499626563238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1689770.021787028</v>
+        <v>1803564.972614151</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.2398278800183</v>
+        <v>679.749370731545</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.0077396723469</v>
+        <v>930.0630774606607</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.884193991373</v>
+        <v>841.299162699542</v>
       </c>
       <c r="AD3" t="n">
-        <v>621239.8278800183</v>
+        <v>679749.370731545</v>
       </c>
       <c r="AE3" t="n">
-        <v>850007.739672347</v>
+        <v>930063.0774606607</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301991200306007e-06</v>
+        <v>3.384945647541156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>768884.1939913729</v>
+        <v>841299.162699542</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>482.3066575259886</v>
+        <v>532.372442909848</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.9132466950718</v>
+        <v>728.4154630038341</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.9320526245523</v>
+        <v>658.8965135522707</v>
       </c>
       <c r="AD4" t="n">
-        <v>482306.6575259885</v>
+        <v>532372.4429098481</v>
       </c>
       <c r="AE4" t="n">
-        <v>659913.2466950718</v>
+        <v>728415.4630038341</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.607450654747671e-06</v>
+        <v>3.834106205007736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.17291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>596932.0526245523</v>
+        <v>658896.5135522707</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.9615939960681</v>
+        <v>525.0273793799277</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.8634067321015</v>
+        <v>718.3656230408637</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.8413552826087</v>
+        <v>649.8058162103272</v>
       </c>
       <c r="AD5" t="n">
-        <v>474961.5939960681</v>
+        <v>525027.3793799276</v>
       </c>
       <c r="AE5" t="n">
-        <v>649863.4067321015</v>
+        <v>718365.6230408638</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.627560703618643e-06</v>
+        <v>3.863676875125236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>587841.3552826087</v>
+        <v>649805.8162103272</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2237.306143624774</v>
+        <v>2357.28348434079</v>
       </c>
       <c r="AB2" t="n">
-        <v>3061.18096868854</v>
+        <v>3225.339259282913</v>
       </c>
       <c r="AC2" t="n">
-        <v>2769.026153431264</v>
+        <v>2917.517407168911</v>
       </c>
       <c r="AD2" t="n">
-        <v>2237306.143624774</v>
+        <v>2357283.48434079</v>
       </c>
       <c r="AE2" t="n">
-        <v>3061180.96868854</v>
+        <v>3225339.259282913</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.124496189418198e-06</v>
+        <v>1.626890170700305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.24375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2769026.153431264</v>
+        <v>2917517.407168911</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>816.3351295409614</v>
+        <v>876.4091855078165</v>
       </c>
       <c r="AB3" t="n">
-        <v>1116.945738402107</v>
+        <v>1199.14171205626</v>
       </c>
       <c r="AC3" t="n">
-        <v>1010.346004772199</v>
+        <v>1084.697310063573</v>
       </c>
       <c r="AD3" t="n">
-        <v>816335.1295409614</v>
+        <v>876409.1855078165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1116945.738402107</v>
+        <v>1199141.71205626</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.024004910573046e-06</v>
+        <v>2.928274657972931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1010346.004772199</v>
+        <v>1084697.310063573</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.5037344528953</v>
+        <v>674.9957952114213</v>
       </c>
       <c r="AB4" t="n">
-        <v>853.1053165218665</v>
+        <v>923.5590257210762</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.6861424538507</v>
+        <v>835.4158485294896</v>
       </c>
       <c r="AD4" t="n">
-        <v>623503.7344528952</v>
+        <v>674995.7952114213</v>
       </c>
       <c r="AE4" t="n">
-        <v>853105.3165218665</v>
+        <v>923559.0257210762</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352368973731256e-06</v>
+        <v>3.403342756727185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>771686.1424538507</v>
+        <v>835415.8485294896</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.9238279403272</v>
+        <v>576.3305478442817</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.2239393928354</v>
+        <v>788.5608814698473</v>
       </c>
       <c r="AC5" t="n">
-        <v>649.6776546508124</v>
+        <v>713.3017376945126</v>
       </c>
       <c r="AD5" t="n">
-        <v>524923.8279403272</v>
+        <v>576330.5478442817</v>
       </c>
       <c r="AE5" t="n">
-        <v>718223.9393928354</v>
+        <v>788560.8814698474</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545593505298605e-06</v>
+        <v>3.682894696612134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.03541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>649677.6546508124</v>
+        <v>713301.7376945126</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>502.5487061123053</v>
+        <v>562.4519908614662</v>
       </c>
       <c r="AB6" t="n">
-        <v>687.6093105870281</v>
+        <v>769.5716275272378</v>
       </c>
       <c r="AC6" t="n">
-        <v>621.98484305033</v>
+        <v>696.1247914966002</v>
       </c>
       <c r="AD6" t="n">
-        <v>502548.7061123053</v>
+        <v>562451.9908614663</v>
       </c>
       <c r="AE6" t="n">
-        <v>687609.310587028</v>
+        <v>769571.6275272378</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.566474695163569e-06</v>
+        <v>3.713105028015226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>621984.8430503301</v>
+        <v>696124.7914966003</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>502.9459761621472</v>
+        <v>562.8492609113082</v>
       </c>
       <c r="AB7" t="n">
-        <v>688.1528729955396</v>
+        <v>770.1151899357491</v>
       </c>
       <c r="AC7" t="n">
-        <v>622.4765286254678</v>
+        <v>696.6164770717381</v>
       </c>
       <c r="AD7" t="n">
-        <v>502945.9761621472</v>
+        <v>562849.2609113082</v>
       </c>
       <c r="AE7" t="n">
-        <v>688152.8729955396</v>
+        <v>770115.189935749</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571768517946236e-06</v>
+        <v>3.720763985272347e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.9125</v>
       </c>
       <c r="AH7" t="n">
-        <v>622476.5286254678</v>
+        <v>696616.4770717381</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>841.3535534860481</v>
+        <v>914.0452443842464</v>
       </c>
       <c r="AB2" t="n">
-        <v>1151.177049778742</v>
+        <v>1250.637028196725</v>
       </c>
       <c r="AC2" t="n">
-        <v>1041.310327834995</v>
+        <v>1131.277985505722</v>
       </c>
       <c r="AD2" t="n">
-        <v>841353.5534860481</v>
+        <v>914045.2443842464</v>
       </c>
       <c r="AE2" t="n">
-        <v>1151177.049778742</v>
+        <v>1250637.028196725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.901876606963357e-06</v>
+        <v>2.856018838469607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1041310.327834995</v>
+        <v>1131277.985505722</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.0825708193387</v>
+        <v>507.6678945971596</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.1910737535477</v>
+        <v>694.6136101146626</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.2872239076208</v>
+        <v>628.3206620616432</v>
       </c>
       <c r="AD3" t="n">
-        <v>451082.5708193387</v>
+        <v>507667.8945971596</v>
       </c>
       <c r="AE3" t="n">
-        <v>617191.0737535477</v>
+        <v>694613.6101146626</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636855270633011e-06</v>
+        <v>3.959724989346193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56875</v>
       </c>
       <c r="AH3" t="n">
-        <v>558287.2239076209</v>
+        <v>628320.6620616432</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.8567071202856</v>
+        <v>492.3463111734586</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.3043282578956</v>
+        <v>673.6499437337998</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.3440555259392</v>
+        <v>609.3577385774793</v>
       </c>
       <c r="AD4" t="n">
-        <v>443856.7071202856</v>
+        <v>492346.3111734586</v>
       </c>
       <c r="AE4" t="n">
-        <v>607304.3282578955</v>
+        <v>673649.9437337997</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662945422330376e-06</v>
+        <v>3.998904168727959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>549344.0555259392</v>
+        <v>609357.7385774793</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.3068549445098</v>
+        <v>618.0870500265819</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.7953373445084</v>
+        <v>845.6939699225328</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.2815367278013</v>
+        <v>764.9821243720671</v>
       </c>
       <c r="AD2" t="n">
-        <v>555306.8549445098</v>
+        <v>618087.0500265819</v>
       </c>
       <c r="AE2" t="n">
-        <v>759795.3373445084</v>
+        <v>845693.9699225328</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317526791841883e-06</v>
+        <v>3.554499182433786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.89791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>687281.5367278013</v>
+        <v>764982.1243720672</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.2656231959205</v>
+        <v>478.4148646569541</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.0766517531603</v>
+        <v>654.5883239978752</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.76056428762</v>
+        <v>592.1153330760001</v>
       </c>
       <c r="AD3" t="n">
-        <v>431265.6231959204</v>
+        <v>478414.8646569541</v>
       </c>
       <c r="AE3" t="n">
-        <v>590076.6517531603</v>
+        <v>654588.3239978752</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.654757183075221e-06</v>
+        <v>4.071725198612031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>533760.56428762</v>
+        <v>592115.3330760001</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.7667589618486</v>
+        <v>477.4445795924884</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.8163748815616</v>
+        <v>653.2607371667173</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.4795138402578</v>
+        <v>590.914449268728</v>
       </c>
       <c r="AD2" t="n">
-        <v>423766.7589618486</v>
+        <v>477444.5795924884</v>
       </c>
       <c r="AE2" t="n">
-        <v>579816.3748815616</v>
+        <v>653260.7371667173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592284676243544e-06</v>
+        <v>4.050393672867687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>524479.5138402578</v>
+        <v>590914.449268728</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.8297271513776</v>
+        <v>477.5075477820175</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.9025307364358</v>
+        <v>653.3468930215913</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.5574471012632</v>
+        <v>590.9923825297335</v>
       </c>
       <c r="AD3" t="n">
-        <v>423829.7271513776</v>
+        <v>477507.5477820175</v>
       </c>
       <c r="AE3" t="n">
-        <v>579902.5307364358</v>
+        <v>653346.8930215914</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601541611339242e-06</v>
+        <v>4.064857451358288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>524557.4471012632</v>
+        <v>590992.3825297335</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.16031019787</v>
+        <v>517.7007747757806</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.6656843177599</v>
+        <v>708.3410393944868</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.6210997092137</v>
+        <v>640.737964757569</v>
       </c>
       <c r="AD2" t="n">
-        <v>452160.31019787</v>
+        <v>517700.7747757806</v>
       </c>
       <c r="AE2" t="n">
-        <v>618665.6843177599</v>
+        <v>708341.0393944868</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302831634480173e-06</v>
+        <v>3.752869753249925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>559621.0997092137</v>
+        <v>640737.964757569</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1213.893992266301</v>
+        <v>1296.780697312493</v>
       </c>
       <c r="AB2" t="n">
-        <v>1660.903313442095</v>
+        <v>1774.312559989644</v>
       </c>
       <c r="AC2" t="n">
-        <v>1502.389032299623</v>
+        <v>1604.97465952755</v>
       </c>
       <c r="AD2" t="n">
-        <v>1213893.992266301</v>
+        <v>1296780.697312492</v>
       </c>
       <c r="AE2" t="n">
-        <v>1660903.313442095</v>
+        <v>1774312.559989644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570240644452981e-06</v>
+        <v>2.319843386982149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.41458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1502389.032299623</v>
+        <v>1604974.65952755</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.7234030618304</v>
+        <v>636.6331803357865</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.834891543819</v>
+        <v>871.0696036091106</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.2632808421266</v>
+        <v>787.9359431945232</v>
       </c>
       <c r="AD3" t="n">
-        <v>578723.4030618303</v>
+        <v>636633.1803357865</v>
       </c>
       <c r="AE3" t="n">
-        <v>791834.891543819</v>
+        <v>871069.6036091106</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382057365681195e-06</v>
+        <v>3.519205827914811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>716263.2808421266</v>
+        <v>787935.9431945232</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>466.5435343937199</v>
+        <v>516.2414568830266</v>
       </c>
       <c r="AB4" t="n">
-        <v>638.3454462055897</v>
+        <v>706.3443362730591</v>
       </c>
       <c r="AC4" t="n">
-        <v>577.4226527431882</v>
+        <v>638.9318241796598</v>
       </c>
       <c r="AD4" t="n">
-        <v>466543.5343937199</v>
+        <v>516241.4568830265</v>
       </c>
       <c r="AE4" t="n">
-        <v>638345.4462055897</v>
+        <v>706344.336273059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.635942428233613e-06</v>
+        <v>3.894290745947201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1625</v>
       </c>
       <c r="AH4" t="n">
-        <v>577422.6527431882</v>
+        <v>638931.8241796597</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.4440549272699</v>
+        <v>517.1419774165764</v>
       </c>
       <c r="AB5" t="n">
-        <v>639.5775781277548</v>
+        <v>707.576468195224</v>
       </c>
       <c r="AC5" t="n">
-        <v>578.5371917240099</v>
+        <v>640.0463631604814</v>
       </c>
       <c r="AD5" t="n">
-        <v>467444.0549272699</v>
+        <v>517141.9774165765</v>
       </c>
       <c r="AE5" t="n">
-        <v>639577.5781277549</v>
+        <v>707576.4681952241</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.638712083461457e-06</v>
+        <v>3.898382581416645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.14791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>578537.1917240098</v>
+        <v>640046.3631604814</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1966.840831795659</v>
+        <v>2077.717608724846</v>
       </c>
       <c r="AB2" t="n">
-        <v>2691.118396956338</v>
+        <v>2842.824894689021</v>
       </c>
       <c r="AC2" t="n">
-        <v>2434.281834159216</v>
+        <v>2571.509676669699</v>
       </c>
       <c r="AD2" t="n">
-        <v>1966840.831795659</v>
+        <v>2077717.608724846</v>
       </c>
       <c r="AE2" t="n">
-        <v>2691118.396956338</v>
+        <v>2842824.894689021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.206503690283981e-06</v>
+        <v>1.752047276272221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2434281.834159216</v>
+        <v>2571509.676669699</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.2566424082174</v>
+        <v>830.4031642792989</v>
       </c>
       <c r="AB3" t="n">
-        <v>1042.953166532614</v>
+        <v>1136.194244168991</v>
       </c>
       <c r="AC3" t="n">
-        <v>943.4151801127035</v>
+        <v>1027.757460164139</v>
       </c>
       <c r="AD3" t="n">
-        <v>762256.6424082174</v>
+        <v>830403.164279299</v>
       </c>
       <c r="AE3" t="n">
-        <v>1042953.166532614</v>
+        <v>1136194.244168991</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.087101627680634e-06</v>
+        <v>3.030824316186283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>943415.1801127035</v>
+        <v>1027757.460164139</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.9281186383757</v>
+        <v>640.5456576687507</v>
       </c>
       <c r="AB4" t="n">
-        <v>794.851480660835</v>
+        <v>876.42282770239</v>
       </c>
       <c r="AC4" t="n">
-        <v>718.9919709276238</v>
+        <v>792.7782630936374</v>
       </c>
       <c r="AD4" t="n">
-        <v>580928.1186383758</v>
+        <v>640545.6576687506</v>
       </c>
       <c r="AE4" t="n">
-        <v>794851.480660835</v>
+        <v>876422.82770239</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413007380567962e-06</v>
+        <v>3.504094552544442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>718991.9709276238</v>
+        <v>792778.2630936374</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.139900473499</v>
+        <v>552.6720986493023</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.7357676248039</v>
+        <v>756.1903475441612</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.3399329602895</v>
+        <v>684.0206020943642</v>
       </c>
       <c r="AD5" t="n">
-        <v>493139.900473499</v>
+        <v>552672.0986493023</v>
       </c>
       <c r="AE5" t="n">
-        <v>674735.7676248039</v>
+        <v>756190.3475441613</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.585894599797546e-06</v>
+        <v>3.75515601550787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>610339.9329602895</v>
+        <v>684020.6020943642</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.8796363631516</v>
+        <v>549.4118345389548</v>
       </c>
       <c r="AB6" t="n">
-        <v>670.2749304363255</v>
+        <v>751.7295103556827</v>
       </c>
       <c r="AC6" t="n">
-        <v>606.304831812255</v>
+        <v>679.9855009463298</v>
       </c>
       <c r="AD6" t="n">
-        <v>489879.6363631516</v>
+        <v>549411.8345389549</v>
       </c>
       <c r="AE6" t="n">
-        <v>670274.9304363255</v>
+        <v>751729.5103556827</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595087573718845e-06</v>
+        <v>3.768505767397864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>606304.831812255</v>
+        <v>679985.5009463298</v>
       </c>
     </row>
   </sheetData>
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.2809452740887</v>
+        <v>578.3825672378177</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.5064601616328</v>
+        <v>791.3685449327896</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.1781243146568</v>
+        <v>715.841441697132</v>
       </c>
       <c r="AD2" t="n">
-        <v>500280.9452740886</v>
+        <v>578382.5672378177</v>
       </c>
       <c r="AE2" t="n">
-        <v>684506.4601616329</v>
+        <v>791368.5449327896</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003160000370397e-06</v>
+        <v>3.339148374264061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>619178.1243146567</v>
+        <v>715841.4416971321</v>
       </c>
     </row>
   </sheetData>
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>645.1311596667272</v>
+        <v>708.6714874732539</v>
       </c>
       <c r="AB2" t="n">
-        <v>882.6969138340921</v>
+        <v>969.6355935404049</v>
       </c>
       <c r="AC2" t="n">
-        <v>798.453559250665</v>
+        <v>877.0949333850108</v>
       </c>
       <c r="AD2" t="n">
-        <v>645131.1596667272</v>
+        <v>708671.487473254</v>
       </c>
       <c r="AE2" t="n">
-        <v>882696.9138340921</v>
+        <v>969635.5935404049</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.163721616754984e-06</v>
+        <v>3.292982256102101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>798453.559250665</v>
+        <v>877094.9333850108</v>
       </c>
     </row>
     <row r="3">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.5779925081802</v>
+        <v>486.0904384843197</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.135805110069</v>
+        <v>665.0903827308952</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.9095107276588</v>
+        <v>601.6150900632726</v>
       </c>
       <c r="AD3" t="n">
-        <v>430577.9925081802</v>
+        <v>486090.4384843197</v>
       </c>
       <c r="AE3" t="n">
-        <v>589135.805110069</v>
+        <v>665090.3827308952</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.656723545885799e-06</v>
+        <v>4.043285156567931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>532909.5107276589</v>
+        <v>601615.0900632726</v>
       </c>
     </row>
     <row r="4">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.8881666537691</v>
+        <v>487.4006126299086</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.9284431768676</v>
+        <v>666.8830207976938</v>
       </c>
       <c r="AC4" t="n">
-        <v>534.5310619333457</v>
+        <v>603.2366412689595</v>
       </c>
       <c r="AD4" t="n">
-        <v>431888.1666537691</v>
+        <v>487400.6126299086</v>
       </c>
       <c r="AE4" t="n">
-        <v>590928.4431768677</v>
+        <v>666883.0207976938</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660969339246979e-06</v>
+        <v>4.049746857598773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.78541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>534531.0619333456</v>
+        <v>603236.6412689595</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2283882883565</v>
+        <v>1026.639127319617</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.249134324637</v>
+        <v>1404.69294612044</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.773427469849</v>
+        <v>1270.631022841636</v>
       </c>
       <c r="AD2" t="n">
-        <v>953228.3882883566</v>
+        <v>1026639.127319617</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304249.134324637</v>
+        <v>1404692.94612044</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784477097099724e-06</v>
+        <v>2.664064941496357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.35625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179773.427469849</v>
+        <v>1270631.022841636</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.4374731735645</v>
+        <v>542.5156803902112</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.1969667859235</v>
+        <v>742.2938880125223</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.806940482172</v>
+        <v>671.4504011566215</v>
       </c>
       <c r="AD3" t="n">
-        <v>485437.4731735645</v>
+        <v>542515.6803902112</v>
       </c>
       <c r="AE3" t="n">
-        <v>664196.9667859235</v>
+        <v>742293.8880125222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560213660719992e-06</v>
+        <v>3.822170353068429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79375</v>
       </c>
       <c r="AH3" t="n">
-        <v>600806.940482172</v>
+        <v>671450.4011566215</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.2325348138033</v>
+        <v>500.1446103859699</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.396261106719</v>
+        <v>684.319920753038</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.4728284677876</v>
+        <v>619.0093879654082</v>
       </c>
       <c r="AD4" t="n">
-        <v>451232.5348138033</v>
+        <v>500144.6103859699</v>
       </c>
       <c r="AE4" t="n">
-        <v>617396.2611067189</v>
+        <v>684319.920753038</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656433923576822e-06</v>
+        <v>3.965818612468938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33125</v>
       </c>
       <c r="AH4" t="n">
-        <v>558472.8284677876</v>
+        <v>619009.3879654083</v>
       </c>
     </row>
   </sheetData>
